--- a/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
+++ b/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anuar\Documents\GitHub\Serious-Game-MMI\1 - Avant Projet\1 - Échanges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anuar\Documents\GitHub\Serious-Game-MMI\1 - Avant Projet\2 - Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Étapes</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Anuar</t>
+  </si>
+  <si>
+    <t>Site d'agence</t>
+  </si>
+  <si>
+    <t>Cours GDP</t>
   </si>
 </sst>
 </file>
@@ -97,11 +103,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,8 +145,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Étapes"/>
     <tableColumn id="2" name="Tom" dataDxfId="3"/>
@@ -446,7 +458,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +534,32 @@
       </c>
       <c r="E4" s="2"/>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
@@ -545,31 +583,46 @@
       </c>
       <c r="B13" s="3">
         <f>SUM(Tableau3[Tom])*B12</f>
-        <v>190</v>
+        <v>590</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(Tableau3[Loïc])*C12</f>
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="D13" s="3">
         <f>SUM(Tableau3[Anuar])*D12</f>
-        <v>90</v>
+        <v>1230</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(Tableau3[Nb d''h M. KARINE])*E12</f>
         <v>45</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5">
+        <f>SUM(B13:E13)</f>
+        <v>2305</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15">
         <f>SUM(Tableau3[[Tom]:[Nb d''h M. KARINE]])</f>
-        <v>17.5</v>
+        <v>114.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
+++ b/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
@@ -108,10 +108,10 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -538,10 +538,14 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
       <c r="D5" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -583,15 +587,15 @@
       </c>
       <c r="B13" s="3">
         <f>SUM(Tableau3[Tom])*B12</f>
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(Tableau3[Loïc])*C12</f>
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="D13" s="3">
         <f>SUM(Tableau3[Anuar])*D12</f>
-        <v>1230</v>
+        <v>1270</v>
       </c>
       <c r="E13" s="3">
         <f>SUM(Tableau3[Nb d''h M. KARINE])*E12</f>
@@ -602,13 +606,13 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <f>SUM(B13:E13)</f>
-        <v>2305</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+        <v>2425</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -616,7 +620,7 @@
       </c>
       <c r="B15">
         <f>SUM(Tableau3[[Tom]:[Nb d''h M. KARINE]])</f>
-        <v>114.5</v>
+        <v>120.5</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
+++ b/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anuar\Documents\GitHub\Serious-Game-MMI\1 - Avant Projet\2 - Outils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1700088\Desktop\Serious-Game-MMI-master\1 - Avant Projet\2 - Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -587,7 +587,7 @@
       </c>
       <c r="B13" s="3">
         <f>SUM(Tableau3[Tom])*B12</f>
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="C13" s="3">
         <f>SUM(Tableau3[Loïc])*C12</f>
@@ -608,7 +608,7 @@
       </c>
       <c r="B14" s="4">
         <f>SUM(B13:E13)</f>
-        <v>2425</v>
+        <v>2445</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="B15">
         <f>SUM(Tableau3[[Tom]:[Nb d''h M. KARINE]])</f>
-        <v>120.5</v>
+        <v>121.5</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
+++ b/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1700088\Desktop\Serious-Game-MMI-master\1 - Avant Projet\2 - Outils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anuar\Documents\GitHub\Serious-Game-MMI\1 - Avant Projet\2 - Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Étapes</t>
   </si>
@@ -63,6 +63,27 @@
   </si>
   <si>
     <t>Cours GDP</t>
+  </si>
+  <si>
+    <t>PLAN DE CHARGES</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Colonne2</t>
+  </si>
+  <si>
+    <t>Colonne3</t>
+  </si>
+  <si>
+    <t>Colonne4</t>
+  </si>
+  <si>
+    <t>Colonne5</t>
+  </si>
+  <si>
+    <t>COÛT Total Horaire</t>
   </si>
 </sst>
 </file>
@@ -74,13 +95,18 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -114,11 +140,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="10" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -149,12 +181,26 @@
   <autoFilter ref="A1:E6"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Étapes"/>
-    <tableColumn id="2" name="Tom" dataDxfId="3"/>
-    <tableColumn id="3" name="Loïc" dataDxfId="2"/>
-    <tableColumn id="4" name="Anuar" dataDxfId="1"/>
-    <tableColumn id="5" name="Nb d'h M. KARINE" dataDxfId="0"/>
+    <tableColumn id="2" name="Tom" dataDxfId="4"/>
+    <tableColumn id="3" name="Loïc" dataDxfId="3"/>
+    <tableColumn id="4" name="Anuar" dataDxfId="2"/>
+    <tableColumn id="5" name="Nb d'h M. KARINE" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A12:E16" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A12:E16"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="Colonne2"/>
+    <tableColumn id="3" name="Colonne3"/>
+    <tableColumn id="4" name="Colonne4"/>
+    <tableColumn id="5" name="Colonne5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -455,22 +501,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +530,13 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -503,25 +552,28 @@
       <c r="E2" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -534,7 +586,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -549,7 +601,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -564,73 +616,91 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>20</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
-        <f>SUM(Tableau3[Tom])*B12</f>
-        <v>650</v>
-      </c>
-      <c r="C13" s="3">
-        <f>SUM(Tableau3[Loïc])*C12</f>
+      <c r="B14" s="3">
+        <f>SUM(Tableau3[Tom])*B13</f>
+        <v>670</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SUM(Tableau3[Loïc])*C13</f>
         <v>480</v>
       </c>
-      <c r="D13" s="3">
-        <f>SUM(Tableau3[Anuar])*D12</f>
-        <v>1270</v>
-      </c>
-      <c r="E13" s="3">
-        <f>SUM(Tableau3[Nb d''h M. KARINE])*E12</f>
+      <c r="D14" s="3">
+        <f>SUM(Tableau3[Anuar])*D13</f>
+        <v>1340</v>
+      </c>
+      <c r="E14" s="3">
+        <f>SUM(Tableau3[Nb d''h M. KARINE])*E13</f>
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4">
+        <f>SUM(B14:E14)</f>
+        <v>2535</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4">
-        <f>SUM(B13:E13)</f>
-        <v>2445</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
+      <c r="B16">
         <f>SUM(Tableau3[[Tom]:[Nb d''h M. KARINE]])</f>
-        <v>121.5</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
+++ b/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anuar\Documents\GitHub\Serious-Game-MMI\1 - Avant Projet\2 - Outils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Serious-Game-MMI\1 - Avant Projet\2 - Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8DC5E558-7D2E-4BD0-8AAB-F7C872D68E1D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Étapes</t>
   </si>
@@ -84,12 +85,15 @@
   </si>
   <si>
     <t>COÛT Total Horaire</t>
+  </si>
+  <si>
+    <t>Présentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -177,28 +181,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Étapes"/>
-    <tableColumn id="2" name="Tom" dataDxfId="4"/>
-    <tableColumn id="3" name="Loïc" dataDxfId="3"/>
-    <tableColumn id="4" name="Anuar" dataDxfId="2"/>
-    <tableColumn id="5" name="Nb d'h M. KARINE" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Étapes"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tom" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Loïc" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Anuar" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nb d'h M. KARINE" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A12:E16" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A12:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="A12:E16" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A12:E16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Colonne1"/>
-    <tableColumn id="2" name="Colonne2"/>
-    <tableColumn id="3" name="Colonne3"/>
-    <tableColumn id="4" name="Colonne4"/>
-    <tableColumn id="5" name="Colonne5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colonne1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Colonne2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Colonne3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Colonne4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Colonne5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,14 +504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.42578125" customWidth="1"/>
@@ -561,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -616,6 +620,17 @@
       </c>
       <c r="E6" s="2"/>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
@@ -656,7 +671,7 @@
       </c>
       <c r="B14" s="3">
         <f>SUM(Tableau3[Tom])*B13</f>
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="C14" s="3">
         <f>SUM(Tableau3[Loïc])*C13</f>
@@ -677,7 +692,7 @@
       </c>
       <c r="B15" s="4">
         <f>SUM(B14:E14)</f>
-        <v>2535</v>
+        <v>2575</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -689,7 +704,7 @@
       </c>
       <c r="B16">
         <f>SUM(Tableau3[[Tom]:[Nb d''h M. KARINE]])</f>
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
+++ b/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Serious-Game-MMI\1 - Avant Projet\2 - Outils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Grandjean\Documents\SeriousGame\Serious-Game-MMI\1 - Avant Projet\2 - Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8DC5E558-7D2E-4BD0-8AAB-F7C872D68E1D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA037B8-7F45-411A-BE40-3ED7FACA2CF9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,18 +507,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +540,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -560,7 +560,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -590,7 +590,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -605,7 +605,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -620,18 +620,18 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -665,13 +665,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3">
         <f>SUM(Tableau3[Tom])*B13</f>
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="C14" s="3">
         <f>SUM(Tableau3[Loïc])*C13</f>
@@ -686,25 +686,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B14:E14)</f>
-        <v>2575</v>
+        <v>2595</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16">
         <f>SUM(Tableau3[[Tom]:[Nb d''h M. KARINE]])</f>
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
+++ b/1 - Avant Projet/2 - Outils/20 - Plan de charges.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Grandjean\Documents\SeriousGame\Serious-Game-MMI\1 - Avant Projet\2 - Outils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anuar\Documents\GitHub\Serious-Game-MMI\1 - Avant Projet\2 - Outils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA037B8-7F45-411A-BE40-3ED7FACA2CF9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -181,28 +180,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau3" displayName="Tableau3" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Étapes"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tom" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Loïc" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Anuar" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nb d'h M. KARINE" dataDxfId="1"/>
+    <tableColumn id="1" name="Étapes"/>
+    <tableColumn id="2" name="Tom" dataDxfId="4"/>
+    <tableColumn id="3" name="Loïc" dataDxfId="3"/>
+    <tableColumn id="4" name="Anuar" dataDxfId="2"/>
+    <tableColumn id="5" name="Nb d'h M. KARINE" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="A12:E16" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A12:E16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A12:E16" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A12:E16"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Colonne1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Colonne2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Colonne3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Colonne4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Colonne5"/>
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="Colonne2"/>
+    <tableColumn id="3" name="Colonne3"/>
+    <tableColumn id="4" name="Colonne4"/>
+    <tableColumn id="5" name="Colonne5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,21 +503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,18 +539,18 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D2" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>0.5</v>
@@ -560,37 +559,41 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5</v>
+      </c>
       <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.5</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -605,7 +608,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -620,18 +623,30 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -648,7 +663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -665,46 +680,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3">
         <f>SUM(Tableau3[Tom])*B13</f>
-        <v>730</v>
+        <v>810</v>
       </c>
       <c r="C14" s="3">
         <f>SUM(Tableau3[Loïc])*C13</f>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="D14" s="3">
         <f>SUM(Tableau3[Anuar])*D13</f>
-        <v>1340</v>
+        <v>1440</v>
       </c>
       <c r="E14" s="3">
         <f>SUM(Tableau3[Nb d''h M. KARINE])*E13</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B14:E14)</f>
-        <v>2595</v>
+        <v>2880</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16">
         <f>SUM(Tableau3[[Tom]:[Nb d''h M. KARINE]])</f>
-        <v>129</v>
+        <v>142.5</v>
       </c>
     </row>
   </sheetData>
